--- a/Control Store/54-line control store with bonus.xlsx
+++ b/Control Store/54-line control store with bonus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohamedAhmed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karashily\Desktop\Arch Project\Control Store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E2553-B698-48A6-954F-729147082EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14749F39-6CEC-4D35-96B0-DD94DE861F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="83">
-  <si>
-    <t>add in control store</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>PCout, MARin, Rd, IncPc</t>
   </si>
@@ -327,16 +324,25 @@
   <si>
     <t>rts</t>
   </si>
+  <si>
+    <t>Microinstructions</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -379,8 +385,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,18 +403,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -408,32 +416,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,993 +739,1075 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="40.296875" customWidth="1"/>
-    <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="37.296875" customWidth="1"/>
-    <col min="5" max="5" width="17.69921875" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.50902777777777775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8">
+        <v>0.84791666666666676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>22</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>23</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>24</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.50902777777777775</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>25</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.50902777777777775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>26</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>27</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>30</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>31</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>32</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>33</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.93263888888888891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>34</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.93263888888888891</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>35</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.93263888888888891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>36</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>37</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>40</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7">
+        <v>41</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>41</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7">
+        <v>42</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>42</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7">
+        <v>43</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>43</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>44</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>45</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.50902777777777775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="7">
-        <v>0.42430555555555555</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>24</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <v>11</v>
-      </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.84791666666666676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>46</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>47</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>50</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>51</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>52</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>53</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>54</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>55</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>56</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>57</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>60</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>61</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>62</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>63</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
         <v>64</v>
       </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>22</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>23</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0.50902777777777775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0.50902777777777775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>30</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>31</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0.93263888888888891</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>34</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0.93263888888888891</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>35</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0.93263888888888891</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>36</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>37</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>40</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34">
-        <v>41</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>41</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35">
-        <v>42</v>
-      </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>42</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36">
-        <v>43</v>
-      </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>43</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="B54" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>45</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>46</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>47</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>50</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>51</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>52</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>53</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>54</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>55</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>56</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>57</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>60</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>61</v>
-      </c>
-      <c r="B51" s="11" t="s">
+      <c r="B55" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>62</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="8"/>
-    </row>
-    <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>63</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>64</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>65</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>153</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>